--- a/database_fill_with_data/personality_feedback_test/Personality Feedback Rus.xlsx
+++ b/database_fill_with_data/personality_feedback_test/Personality Feedback Rus.xlsx
@@ -41,28 +41,82 @@
     <t xml:space="preserve">Описание </t>
   </si>
   <si>
+    <t>Сознательность</t>
+  </si>
+  <si>
+    <t>Экстраверсия</t>
+  </si>
+  <si>
+    <t>Доброжелательность</t>
+  </si>
+  <si>
+    <t>Нейротизм</t>
+  </si>
+  <si>
     <t>Это направленность личности на внешний либо свой внутренний мир.</t>
   </si>
   <si>
+    <t>Эта черта показывает насколько человек  предпочитает что-то новое обыденному. Судя по вашим ответам, вы кажетесь человеком, который является приземлённым, и предпочитает, чтобы вещи были простыми и прямыми. Вы могли бы сказать, что это просто облегчает жизнь, если вещи не меняются без необходимости, что искусство не имеет практического применения для вас и традиция важнее, чем остальные привыкли думать . Рефлексивный вопрос: как вы реагируете на перемены?</t>
+  </si>
+  <si>
     <t>Этот фактор описывает эмоционально-волевую устойчивость человека.</t>
   </si>
   <si>
     <t xml:space="preserve">Этот фактор описывает чем отличаются креативные и творческие люди, от практичных и приземленных людей. </t>
   </si>
   <si>
+    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. Судя по вашим ответам, вы кажетесь человеком импульсивным и причудливым, и отлично с этим! Вы говорите, что иногда решения нужно принимать быстро, а вы делаете их быстрее, чем большинство! Вы сказали бы, что вы веселый, красочный и вы тот, человек, с котором людям приятно и весело проводить время... но если только они не полагаются на вашу работу. Рефлексивный вопрос: как вы себя чувствуете, когда работаете с кем-то, кто очень организован?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. Судя по вашим ответам, вы кажетесь тихим и немного отстраненным. Ваши ответы описывают вас как человека, которому не нужно много людей, чтобы повеселиться, а порой можете посчтить, что люди утомительны. Рефлективный вопрос: Как вы любите проводить свободное время?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. Судя по вашим ответам, вы кажетесь человеком, который готов принять трудные решения, когда это необходимо, и укажет, когда что-то не так, независимо от того, что могут почувствовать другие люди. Ваши ответы подсказывают, что вы можете быть твердым и бескомпромиссным. Рефлексивный вопрос: когда у других возникают проблемы, что вы делаете?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди справляются с жизненными требованиям и отвечают на них. Судя по вашим ответам, вы кажетесь человеком, которого очень сложно расстроить или смутить, так как вы редко, если вообще когда-либо, реагируете на негативные эмоции, и даже когда вы беспокоитесь о чем-то, чувство быстро проходит. Основываясь на ваших ответах, вы очень спокойный и стойкий. Рефлексивный вопрос: когда ваши эмоции (или отсутствие эмоций) мешают хорошему принятию решений?</t>
+  </si>
+  <si>
+    <t>21-38</t>
+  </si>
+  <si>
+    <t>Эта черта показывает насколько человек предпочитают что-то новое обыденному. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который не любит ненужные усложнения и предпочитает знакомое необычному. Вы, наверно, скажете, что вы более консервативны, чем многие, но не на экстремальном уровне, и что вы цените практические результаты над беглым воображением. Рефлексивный вопрос: как вы реагируете на людей, у которых много новых идей?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. Судя по вашим ответам, вы кажетесь человеком спонтанным и веселым, и что вам нравится делать неожиданные вещи, ведь делают жизнь интереснее! Вы можете сказать, что вы не совсем ненадежны, но вы, как известно, иногда выскальзываете. Рефлексивный вопрос: как вы решаете новые задачи?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. Судя по вашим ответам, вы кажетесь человеком, который предпочитает, если собираться - то сдержанно и с несколькими близкими друзьями. Вы можете сказать, не то, чтобы большие вечеринки вгоняют вас в страх; они просто не так забавны для вас. Рефлективный вопрос: Как вы любите проводить свободное время?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. Судя по вашим ответам, вы кажетесь человеком, с которым поладить сразу - трудно, так как вы можете с подозрением относиться к их мотивам. Ваши ответы подсказывают, что со временем люди сближаются к вам и вы к ним. Рефлексивный вопрос: когда у других возникают проблемы, что вы делаете?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди справляются с жизненными трудностями и отвечают на них. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который спокойный и эмоционально стабильный. Основываясь на ваших ответах, вы редко беспокоитесь о вещах, и если даже они вас сбивают - чувства все равно не сохраняются очень долго. Рефлексивный вопрос: когда ваши эмоции (или отсутствие эмоций) мешают хорошенько принять решения?</t>
+  </si>
+  <si>
+    <t>42-58</t>
+  </si>
+  <si>
     <t xml:space="preserve">Этот фактор описывает пути как мы контролируем и направляем свою энергию. </t>
   </si>
   <si>
+    <t>Эта черта показывает насколько человек предпочитает что-то новое обыденному. Судя по вашим ответам, вы кажетесь человеком, который осознает свои чувства, но не позволяет своему воображению взять вверх. Вы можете сказать, что вы принимаете перемены, когда это необходимо, но все же сопротивляетесь им, когда необходимости нет, и это важно для вас. Рефлексивный вопрос: По вашему мнению, когда нужно соблюдать традиции, а когда вводить перемены?</t>
+  </si>
+  <si>
     <t>Это описывает насколько человек склонен к сотрудничеству и взаимному согласию.</t>
   </si>
   <si>
-    <t>Сознательность</t>
-  </si>
-  <si>
-    <t>21-38</t>
-  </si>
-  <si>
-    <t>42-58</t>
+    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. Судя по вашим ответам, вы кажетесь веселым человеком, который позволяет судьбе рукодводствовать, но вы также можете планировать и упорствовать, когда жизнь требует этого. Из ваших ответов выясняется, что в зависимости от ситуации вы можете принимать быстрые решения или преднамеренно дольше, если это необходимо. Рефлексивный вопрос: как вы организовываете свои дела?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. Судя по вашим ответам, вы кажетесь человеком, который любит и активно ищет встреч с людьми, но не всегда. Вы могли бы сказать, что иногда приятно отойти на какое-то время и провести вечер с собой да и только. Рефлексивный вопрос: Какую роль вы играете в группе? (на работе или в социальной деятельности)</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. Судя по вашим ответам, вы кажетесь человеком, который хорошо ладит с людьми, особенно когда они доказали, что вам доверяют. Ваши ответы подсказывают, что у вас есть здоровый скептицизм по поводу мотивов других, но это не мешает вам считать других честными и порядочными. Рефлексивный вопрос: В каких ситуациях вы сотрудничаете? Когда вам нравится соревноваться?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди справляются с жизненными трудностями и отвечают на них. Судя по вашим ответам, вы кажетесь человеком, который в целом спокойный. Основываясь на ваших ответах, вы можете быть эмоциональным или испытывать стресс из-за некоторых случаев, однако ваши чувства, как правило, оправдываются ситуацией. Рефлексивный вопрос: в каких ситуациях вы чувствуете себя под давлением, а в каких нет?</t>
   </si>
   <si>
     <t>60-76</t>
@@ -71,97 +125,43 @@
     <t>85-97</t>
   </si>
   <si>
-    <t>Экстраверсия</t>
-  </si>
-  <si>
-    <t>Доброжелательность</t>
-  </si>
-  <si>
-    <t>Нейротизм</t>
-  </si>
-  <si>
-    <t>Эта черта показвает насколько человек предпочитают что-то новое обыденному. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который является приземленным, и предпочитает, чтобы вещи были простыми и прямыми. Вы могли бы сказать, что это просто облегчает жизнь, если вещи не меняются без необходимости, что искусство не имеет практического применения для вас и традиция важнее, чем остальные привыкли думать . Рефлексивный вопрос: как вы реагируете на изменение?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как кто-то, кто импульсивный и причудливый, и отлично с этим! Из ваших ответов кажется, что вы говорите, что иногда решения нужно делать быстро, а вы делаете их быстрее, чем большинство! Вы сказали бы, что вы веселый, красочный и вы тот, человек, с котором людям приятно и весело проводить время... если они не полагаются на вашу работу. Рефлексивный вопрос: как вы себя чувствуете, когда работаете с кем-то, кто очень организован?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. По тому, как вы ответили на вопросы, вы, кажется, описываете себя тихим и немного отстраненным. Ваши ответы описывают вас как человека, которому не нужно много других людей, чтобы повеселиться, и иногда могут обнаружить, что люди утомительны. Рефлективный вопрос: Как вы любите проводить свободное время?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который готов принять трудные решения, когда это необходимо, и укажет, когда что-то не так, независимо от того, что могут почувствовать другие люди. Ваши ответы подсказывают, что вы скажете, что можете быть твердым и бескомпромиссным. Рефлексивный вопрос: когда у других возникают проблемы, что вы делаете?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди справляются с жизненными требованиям и отвечают на них. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, которого очень сложно расстроить или смутить, так как вы редко, если вообще когда-либо, реагируете на негативные эмоции, и даже когда вы беспокоитесь о чем-то, чувство быстро проходит. Основываясь на ваших ответах, вы очень спокойный и стойкий. Рефлексивный вопрос: когда ваши эмоции (или отсутствие эмоций) мешают хорошему принятию решений?</t>
-  </si>
-  <si>
-    <t>Эта черта показвает насколько человек предпочитают что-то новое обыденному. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который не любит ненужные усложнения и предпочитает знакомое необычному. Вы, наверно, скажете, что вы более консервативны, чем многие, но не на экстремальном уровне, и что вы цените практические результаты над беглым воображением. Рефлексивный вопрос: как вы реагируете на людей, у которых много новых идей?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человеком спонтанным и веселым, и что вам нравится делать неожиданные вещи, которые делают жизнь более интересной. Вы можете сказать, что вы не совсем ненадежны, но вы, как известно, иногда выскальзываете. Рефлексивный вопрос: как вы решаете новые задачи?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который предпочитает, если собираться - то сдержанно и с несколькими близкими друзьями. Вы можете сказать, не то, чтобы большие вечеринки вгоняют вас в страх; они просто не так забавны для вас. Рефлективный вопрос: Как вы любите проводить свободное время?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, с которым поладить сразу - трудно, так как вы можете с подозрением относиться к их мотивам. Ваши ответы подсказывают, что со временем люди сближаются к вам и вы к ним. Рефлексивный вопрос: когда у других возникают проблемы, что вы делаете?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди справляются с жизненными трудностями и отвечают на них. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который спокойный и эмоционально стабильный. Основываясь на ваших ответах, вы редко беспокоитесь о вещах, но когда они вас сбивают, чувства все равно не сохраняются очень долго. Рефлексивный вопрос: когда ваши эмоции (или отсутствие эмоций) мешают хорошему принятию решений?</t>
-  </si>
-  <si>
-    <t>Эта черта показвает насколько человек предпочитают что-то новое обыденному. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который осознает свои чувства, но не позволяет своему воображению взять вверх. Вы можете сказать, что вы принимаете перемены, когда это необходимо, но все же сопротивляетесь им, когда необходимости нет, и это важно для вас. Рефлексивный вопрос: По вашему мнению, когда традиции важны, а когда настает время для перемен?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека веселого и который позволяет случайностям решать за вас, но вы также можете планировать и упорствовать, когда жизнь требует этого. Из ваших ответов выясняется, что в зависимости от ситуации вы можете принимать быстрые решения или преднамеренно дольше, если это необходимо. Рефлексивный вопрос: как вы организовываете свои дела?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который любит и активно ищет встреч с людьми, но не всегда. Вы могли бы сказать, что иногда приятно отойти на какое-то время и провести вечер с собой да и только. Рефлексивный вопрос: Какую роль вы играете в группе? (на работе или в социальной деятельности)</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который хорошо ладит с людьми, особенно когда они доказали, что вам доверяют. Ваши ответы подсказывают, что у вас есть здоровый скептицизм по поводу мотивов других, но это не мешает вам считать других честными и порядочными. Рефлексивный вопрос: В каких ситуациях вы сотрудничаете? Когда вам нравится соревноваться?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди справляются с жизненными трудностями и отвечают на них. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который в целом спокойный. Основываясь на ваших ответах, вы можете быть эмоциональным или испытывать стресс из-за некоторых случаев, однако ваши чувства, как правило, оправдываются ситуацией. Рефлексивный вопрос: в каких ситуациях вы чувствуете себя под давлением, а в каких нет?</t>
-  </si>
-  <si>
-    <t>Эта черта показвает насколько человек предпочитают что-то новое обыденному. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который интеллектуально любопытен и ценит то, что вы считаете красивым, независимо от того, что думают другие. Вы можете сказать, что ваше воображение яркое и делает вас более творческим, чем многие другие. Рефлексивный вопрос: насколько важны ваши эмоции при определении того, как вы себя ведете?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который избегает предсказуемых проблем посредством целенаправленного планирования и добивается успеха настойчивостью. Из ваших ответов кажется, что вы надежны и готовы к жизненным вызовам. Рефлексивный вопрос: как вы себя чувствуете, когда работаете с кем-то, кто неорганизован?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. По тому, как вы ответили на вопросы, вы, кажется, описываете себя энергичным и активным. Ваши ответы описывают вас как человека, который любит и активно ищет встреч с людьми, и что вам особенно нравится разговаривать с большой группой людей. Рефлексивный вопрос: вы предпочитаете быть занятым все время? Зачем?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. Из того, как вы ответили на вопросы, вы, кажется, описываете себя как человека, с которым люди легко ладят. Ваши ответы подсказывают, что вы говорите, что вы внимательны и дружелюбны и считаете, что другие люди честны и порядочны. Рефлексивный вопрос: было ли так, что люди злоупотребляли вашим сотрудничеством?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди справляются и реагируют на жизненные трудности По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который, как правило, более самосознателен, чем многие. Основываясь на ваших ответах, вам тяжело не попасть в тревожные или стрессовые ситуации. Вы можете сказать, что вы знаете своими собственные чувства. Рефлексивный вопрос: когда вы не чувствуете контроля над своими эмоциями?</t>
-  </si>
-  <si>
-    <t>Эта черта показвает насколько человек предпочитают что-то новое обыденному. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который гораздо любопытнее (в интеллектуальном плане), а также чувствителеннее к красоте, чем большинство. Вы можете сказать, что ваши убеждения индивидуалистичны и часто склоняются к нетрадиционному, и что вам нравится ваше воображение и захватывающие места, куда они вас вовлекают! Рефлексивный вопрос: Какое место, по вашему мнению, имеет традиция в обществе (если имеет вообще)?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который является перфекционистом. Из ваших ответов кажется, что вы предпочитаете планировать все до мельчайших деталей, что, следовательно, привело к тому, что вы очень успешны и чрезвычайно надежны. Из ваших ответов кажется, что вы наслаждаетесь больше чем остальные, когда ваши долгосрочные планы реализовываются. Рефлексивный вопрос: как вы чувствуете себя в неопрятной среде?</t>
-  </si>
-  <si>
-    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который постоянно энергичен, буйный и активен. Ваши ответы описывают вас как человека, который стремится быть центром внимания в группе, отстоит свою позицию в команде и обычно говорит: «Да!». Рефлексивный вопрос: вы предпочитаете быть занятым все время? Почему?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, с которым очень легко ладить. Ваши ответы говорят о том, что вы считаете, что вы внимательны, дружелюбны, щедры и полезны, и вы считаете, что большинство других людей должны быть полностью достойными и заслуживающими доверия. Рефлексивный вопрос: злоупотребляли ли люди вашим сотрудничеством?</t>
-  </si>
-  <si>
-    <t>Эта черта относится к тому, как люди справляются с жизненными трудностями и отвечают на них. По тому, как вы ответили на вопросы, вы, кажется, описываете себя как человека, который плохо реагирует на стрессовые ситуации и, следовательно, беспокоится больше, чем большинство. Тем не менее, вы - тот, у кого есть эмоциональная глубина, которой не хватает другим. Рефлексивный вопрос: когда вы не чувствуете контроля над своими эмоциями?</t>
+    <t>Эта черта показывает насколько человек предпочитает что-то новое обыденному. Судя по вашим ответам, вы кажетесь человеком, который интеллектуально любопытен и ценит то, что вы считаете красивым, независимо от того, что думают другие. Вы можете сказать, что ваше воображение яркое и делает вас более творческим, чем многие другие. Рефлексивный вопрос: насколько важны ваши эмоции при определении того, как вы себя ведете?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. Судя по вашим ответам, вы кажетесь человеком, который избегает предсказуемых проблем посредством целенаправленного планирования и добивается успеха настойчивостью. Из ваших ответов кажется, что вы надежны и готовы к жизненным вызовам. Рефлексивный вопрос: как вы себя чувствуете, когда работаете с кем-то, кто неорганизован?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. Судя по вашим ответам, вы кажетесь энергичным и активным. Ваши ответы описывают вас как человека, который любит и активно ищет встреч с людьми, и что вам особенно нравится разговаривать с большой группой людей. Рефлексивный вопрос: вы предпочитаете быть занятым все время? Почему?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. Судя по вашим ответам, вы кажетесь человеком, с которым люди легко ладят. Ваши ответы подсказывают, что вы внимательны и дружелюбны и считаете, что другие люди честны и порядочны. Рефлексивный вопрос: было ли так, чтоб люди злоупотребили вашей добротой?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди справляются и реагируют на жизненные трудности. Судя по вашим ответам, вы кажетесь человеком, который более самосознателен, чем многие. Основываясь на ваших ответах, вам тяжело не попасть в тревожные или стрессовые ситуации. Вы можете сказать, что вы знаете своими собственные чувства. Рефлексивный вопрос: когда вы не чувствуете контроля над своими эмоциями?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает насколько человек  предпочитает что-то новое обыденному. Судя по вашим ответам, вы кажетесь человеком, который гораздо любопытнее (в интеллектуальном плане), а также чувствителеннее к красоте, чем большинство. Вы можете сказать, что ваши убеждения индивидуалистичны и часто склоняются к нетрадиционному, и что вам нравится ваше воображение и захватывающие места, куда они вас вовлекают! Рефлексивный вопрос: Повашему мнению, какое место традиция имеет в обществе (если имеет вообще)?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько человек предпочитает организованный подход жизни гибкому. Судя по вашим ответам, вы кажетесь человеком, который является перфекционистом. Из ваших ответов кажется, что вы предпочитаете планировать все до мельчайших деталей, и именно поэтому вы очень успешны и чрезвычайно надежны. Вы получаете огромное наслаждение, когда ваши долгосрочные планы реализовываются. Рефлексивный вопрос: как вы чувствуете себя в неопрятной среде?</t>
+  </si>
+  <si>
+    <t>Эта черта показывает, насколько мы наслаждаемся компанией, ищем новые ощущения. Судя по вашим ответам, вы кажетесь человеком, который постоянно энергичен, буйный и активен. Ваши ответы описывают вас как человека, который стремится быть центром внимания в группе, отстоит свою позицию в команде и обычно говорит: «Да!». Рефлексивный вопрос: вы предпочитаете быть занятым все время? Почему?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди выражают свое мнение и управляют отношениями. Судя по вашим ответам, вы кажетесь человеком, с которым все ладят. Ваши ответы говорят о том, что вы внимательны, дружелюбны, щедры и полезны, и вы считаете, что большинство других людей должны быть полностью достойными и заслуживающими доверия. Рефлексивный вопрос: было ли так, чтоб люди злоупотребили вашей добротой?</t>
+  </si>
+  <si>
+    <t>Эта черта относится к тому, как люди справляются с жизненными трудностями и отвечают на них. Судя по вашим ответам, вы кажетесь человеком, который плохо реагирует на стрессовые ситуации и, следовательно, беспокоится больше, чем большинство. Тем не менее, вы - тот, у кого есть эмоциональная глубина, которой не хватает другим. Рефлексивный вопрос: когда вы не чувствуете контроля над своими эмоциями?</t>
   </si>
   <si>
     <t>определение</t>
   </si>
   <si>
-    <t>Открытость к опыту описывает измерение личности, которое отличает людей с богатым воображением, творческих от приземлимых людей, с традиционными взглядами.</t>
-  </si>
-  <si>
-    <t>Сознательеость касается того, как мы контролируем, регулируем и направляем наши импульсы.</t>
+    <t>Открытость к опыту описывает измерение личности, которое отличает людей творческих и с богатым воображением от людей приземлённых и с традиционными взглядами.</t>
+  </si>
+  <si>
+    <t>Сознательность касается того, как мы контролируем, регулируем и направляем наши импульсы.</t>
   </si>
   <si>
     <t>Экстраверсия характеризуется выраженным взаимодействием с внешним миром, в сопоставлении с комфортом в собственной компании.</t>
@@ -197,18 +197,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tateregular"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
       <name val="Palatino Linotype"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tateregular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -259,22 +259,22 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -282,10 +282,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,119 +325,119 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="89.25" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>43175.0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -455,19 +455,19 @@
       <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -1510,56 +1510,56 @@
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="35.25" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>43175.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
